--- a/cohesion_conflict_clean-ODKX/app/config/tables/household_member/forms/household_member/household_member.xlsx
+++ b/cohesion_conflict_clean-ODKX/app/config/tables/household_member/forms/household_member/household_member.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="1860" windowWidth="25040" windowHeight="15500" tabRatio="745" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20460" tabRatio="745" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="141">
   <si>
     <t>type</t>
   </si>
@@ -392,12 +392,6 @@
     <t>basic demog</t>
   </si>
   <si>
-    <t>( data('sex') == 'female' ) &amp;&amp; ( data('relation_to_head') != 'son_daughter' )</t>
-  </si>
-  <si>
-    <t>(data('sex') == 'female') &amp;&amp; ( data('relation_to_head') != 'son_daughter' )</t>
-  </si>
-  <si>
     <t>query_name</t>
   </si>
   <si>
@@ -453,6 +447,9 @@
   </si>
   <si>
     <t>calculate</t>
+  </si>
+  <si>
+    <t>village</t>
   </si>
 </sst>
 </file>
@@ -688,7 +685,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="183">
+  <cellStyleXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -778,6 +775,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1007,7 +1006,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="183">
+  <cellStyles count="185">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1098,6 +1097,7 @@
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1188,6 +1188,7 @@
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="9"/>
     <cellStyle name="Note" xfId="88" builtinId="10"/>
@@ -1556,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1636,7 +1637,7 @@
     </row>
     <row r="2" spans="1:10" ht="31" customHeight="1">
       <c r="A2" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -1645,12 +1646,12 @@
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
       <c r="I2" s="59" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
@@ -2145,7 +2146,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1">
@@ -2187,10 +2188,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A17" sqref="A17:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2229,60 +2230,60 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="9" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -2290,7 +2291,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -2298,54 +2299,65 @@
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
         <v>116</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
+      <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C17" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>131</v>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>136</v>
-      </c>
       <c r="B23" t="s">
         <v>135</v>
       </c>
@@ -2354,15 +2366,10 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="B24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="27"/>
+      <c r="B24" s="27"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="36"/>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" s="36"/>
@@ -2375,9 +2382,6 @@
     </row>
     <row r="30" spans="1:3">
       <c r="B30" s="36"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="B31" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2598,10 +2602,10 @@
         <v>4</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
@@ -2646,10 +2650,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="31" customHeight="1" x14ac:dyDescent="0"/>
@@ -2740,7 +2744,7 @@
       <c r="G5" s="46"/>
       <c r="H5" s="28"/>
       <c r="I5" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="31" customHeight="1">
@@ -2845,7 +2849,7 @@
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
       <c r="I13" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="31" customHeight="1">
@@ -2880,108 +2884,84 @@
       <c r="H15" s="30"/>
       <c r="I15" s="30"/>
     </row>
-    <row r="16" spans="1:9" ht="31" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18" t="s">
+    <row r="16" spans="1:9" s="14" customFormat="1" ht="31" customHeight="1">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="1:9" ht="31" customHeight="1">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+    </row>
+    <row r="18" spans="1:9" ht="31" customHeight="1">
+      <c r="B18" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
+    </row>
+    <row r="19" spans="1:9" ht="31" customHeight="1">
+      <c r="B19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="31" customHeight="1">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30" t="s">
-        <v>121</v>
-      </c>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" ht="31" customHeight="1">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:9" ht="31" customHeight="1">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-    </row>
-    <row r="26" spans="1:9" ht="31" customHeight="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-    </row>
-    <row r="27" spans="1:9" ht="31" customHeight="1">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-    </row>
-    <row r="28" spans="1:9" ht="31" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3019,28 +2999,28 @@
         <v>31</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="E1" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="H1" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="I1" s="33" t="s">
         <v>128</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:9">

--- a/cohesion_conflict_clean-ODKX/app/config/tables/household_member/forms/household_member/household_member.xlsx
+++ b/cohesion_conflict_clean-ODKX/app/config/tables/household_member/forms/household_member/household_member.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20460" tabRatio="745" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21060" tabRatio="745" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="139">
   <si>
     <t>type</t>
   </si>
@@ -221,9 +221,6 @@
     <t>What is {{data.first_name}}'s marital status?</t>
   </si>
   <si>
-    <t>How many years of education has {{data:first_name}} had?</t>
-  </si>
-  <si>
     <t>Where was {{data.first_name}} born?</t>
   </si>
   <si>
@@ -380,15 +377,6 @@
     <t>has_children</t>
   </si>
   <si>
-    <t>Does {{data:first_name}} have any children?</t>
-  </si>
-  <si>
-    <t>female_questions</t>
-  </si>
-  <si>
-    <t>Female Only Questions</t>
-  </si>
-  <si>
     <t>basic demog</t>
   </si>
   <si>
@@ -450,6 +438,12 @@
   </si>
   <si>
     <t>village</t>
+  </si>
+  <si>
+    <t>How many years of education has {{data.first_name}} had?</t>
+  </si>
+  <si>
+    <t>Does {{data.first_name}} have any children?</t>
   </si>
 </sst>
 </file>
@@ -685,7 +679,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="185">
+  <cellStyleXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -871,17 +865,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1006,7 +1001,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="185">
+  <cellStyles count="189">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1098,6 +1093,8 @@
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1189,6 +1186,8 @@
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="9"/>
     <cellStyle name="Note" xfId="88" builtinId="10"/>
@@ -1541,23 +1540,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1604,70 +1603,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="31" customHeight="1">
-      <c r="A2" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="12" t="s">
+      <c r="A2" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="59" t="s">
-        <v>137</v>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="58" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="39" customHeight="1">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
         <v>59</v>
@@ -1681,16 +1680,16 @@
     </row>
     <row r="6" spans="1:10" ht="37" customHeight="1">
       <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="37" customHeight="1">
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="62.5" customHeight="1"/>
     <row r="9" spans="1:10" ht="62.5" customHeight="1"/>
@@ -1721,353 +1720,353 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.25" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="22.25" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.25" customHeight="1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.25" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:8" ht="22.25" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="22.25" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A9" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A9" s="19" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A10" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A10" s="19" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A11" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A11" s="19" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A12" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A12" s="19" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A13" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A13" s="19" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A14" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A14" s="19" t="s">
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A15" s="19" t="s">
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A16" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A16" s="19" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A17" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A17" s="19" t="s">
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A18" s="19" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A19" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="19" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A20" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A20" s="19" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A21" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A21" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="20" t="s">
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A22" s="16"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A23" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A24" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A23" s="23" t="s">
+      <c r="C24" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A25" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A24" s="23" t="s">
+      <c r="B25" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A26" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A25" s="23" t="s">
+    </row>
+    <row r="27" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A27" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A26" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A27" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="23" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2084,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2098,7 +2097,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2112,7 +2111,7 @@
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2125,10 +2124,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2146,33 +2145,25 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2204,51 +2195,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B2" s="34"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2278,7 +2269,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2315,7 +2306,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -2331,7 +2322,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2343,15 +2334,15 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
@@ -2359,29 +2350,29 @@
     </row>
     <row r="23" spans="1:3">
       <c r="B23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="B24" s="27"/>
+      <c r="B24" s="26"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="B26" s="36"/>
+      <c r="B26" s="35"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="B27" s="36"/>
+      <c r="B27" s="35"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="B28" s="36"/>
+      <c r="B28" s="35"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="B29" s="36"/>
+      <c r="B29" s="35"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="B30" s="36"/>
+      <c r="B30" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2444,198 +2435,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="53" t="s">
+      <c r="C1" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="54" t="s">
-        <v>114</v>
+      <c r="J1" s="53" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="17"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="48" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="28" t="s">
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="17"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="48" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48" t="s">
+      <c r="E4" s="47"/>
+      <c r="F4" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="17"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="48" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48" t="s">
+      <c r="E5" s="47"/>
+      <c r="F5" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="17"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="48" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48" t="s">
+      <c r="E6" s="47"/>
+      <c r="F6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28" t="s">
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="K9" s="58"/>
+      <c r="F9" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="K9" s="57"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="27"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2652,8 +2643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="31" customHeight="1" x14ac:dyDescent="0"/>
@@ -2664,304 +2655,298 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="31" customHeight="1">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" ht="57" customHeight="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" ht="21" customHeight="1">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:9" ht="25" customHeight="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="15" t="s">
+      <c r="C5" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="31" customHeight="1">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" ht="31" customHeight="1">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" s="13" customFormat="1" ht="26" customHeight="1">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+    </row>
+    <row r="9" spans="1:9" s="13" customFormat="1" ht="26" customHeight="1">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="31" customHeight="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:9" ht="31" customHeight="1">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:9" ht="31" customHeight="1">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="13" spans="1:9" ht="31" customHeight="1">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="31" customHeight="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" spans="1:9" ht="31" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="1:9" s="13" customFormat="1" ht="31" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="18" spans="1:9" ht="31" customHeight="1">
+      <c r="B18" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="31" customHeight="1">
+      <c r="B19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" ht="31" customHeight="1">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="1:9" ht="57" customHeight="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-    </row>
-    <row r="4" spans="1:9" ht="21" customHeight="1">
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="25" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="31" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:9" ht="31" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="1:9" s="14" customFormat="1" ht="26" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" spans="1:9" s="14" customFormat="1" ht="26" customHeight="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" spans="1:9" ht="31" customHeight="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-    </row>
-    <row r="11" spans="1:9" ht="31" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="13" spans="1:9" ht="31" customHeight="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="31" customHeight="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-    </row>
-    <row r="15" spans="1:9" ht="31" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-    </row>
-    <row r="16" spans="1:9" s="14" customFormat="1" ht="31" customHeight="1">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-    </row>
-    <row r="17" spans="1:9" ht="31" customHeight="1">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="30" t="s">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" ht="31" customHeight="1">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-    </row>
-    <row r="18" spans="1:9" ht="31" customHeight="1">
-      <c r="B18" s="30" t="s">
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+    </row>
+    <row r="22" spans="1:9" ht="31" customHeight="1">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="31" customHeight="1">
-      <c r="B19" s="21"/>
-    </row>
-    <row r="20" spans="1:9" ht="31" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="1:9" ht="31" customHeight="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-    </row>
-    <row r="22" spans="1:9" ht="31" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2994,82 +2979,82 @@
     <col min="9" max="9" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="33" customFormat="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" s="32" customFormat="1">
+      <c r="A1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="G1" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="I1" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-    </row>
-    <row r="7" spans="1:9" s="14" customFormat="1">
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+    </row>
+    <row r="7" spans="1:9" s="13" customFormat="1">
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="I9" s="34"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="I9" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
